--- a/hw2/envy_free_problems.xlsx
+++ b/hw2/envy_free_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesfuest/Library/Mobile Documents/com~apple~CloudDocs/Documents/Stanford/PhD/MS&amp;E 214/Applied_Optimization/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C5F19-69D8-3440-BFF4-EA9947A420F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF6A7F4-7147-7B40-BFFB-CEB2ABBF0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2320" windowWidth="34560" windowHeight="17620" activeTab="2" xr2:uid="{E48F1EE0-D406-4CEF-A956-12411178FBE8}"/>
+    <workbookView xWindow="0" yWindow="2320" windowWidth="34560" windowHeight="17620" activeTab="6" xr2:uid="{E48F1EE0-D406-4CEF-A956-12411178FBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem_1" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="143">
   <si>
     <t>Valuation 1</t>
   </si>
@@ -589,9 +589,6 @@
   </si>
   <si>
     <t>$T$11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dual 1: </t>
   </si>
   <si>
     <t>Prices</t>
@@ -1143,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A8B9B5-DB5F-431E-95EF-CC006FD2B632}">
-  <dimension ref="A2:T17"/>
+  <dimension ref="A2:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:S11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1720,11 +1717,6 @@
       <c r="P14">
         <f>SUMPRODUCT(assign_3, values_3)</f>
         <v>3800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1824,7 +1816,7 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
@@ -1845,21 +1837,21 @@
         <v>2800</v>
       </c>
       <c r="I8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" t="s">
         <v>119</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Q8" t="s">
         <v>120</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="U8" t="s">
         <v>121</v>
-      </c>
-      <c r="U8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1992,13 +1984,13 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
         <v>117</v>
       </c>
-      <c r="H15" t="s">
-        <v>118</v>
-      </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
@@ -2177,7 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E654F0B-63BC-9B42-B1AE-B1D0978D2B64}">
   <dimension ref="B4:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -2188,21 +2180,21 @@
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>132</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>133</v>
-      </c>
-      <c r="G4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -2219,7 +2211,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -2236,7 +2228,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -2253,7 +2245,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -2270,13 +2262,13 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H10">
         <f>SUMPRODUCT(G5:G8,C5:C8)</f>
@@ -2285,13 +2277,13 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11">
         <f>SUMPRODUCT(G5:G8,D5:D8)</f>
@@ -2300,7 +2292,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14">
         <f>SUMPRODUCT(G5:G8,E5:E8)</f>
@@ -4372,7 +4364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3570F8D6-D8B0-504D-9B4D-3986F11F1864}">
   <dimension ref="C4:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -4380,22 +4372,22 @@
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
         <v>138</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>140</v>
       </c>
-      <c r="F4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>141</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>142</v>
-      </c>
-      <c r="I4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
@@ -4479,7 +4471,7 @@
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <f>SUMPRODUCT(E5:E8,F5:F8)</f>
